--- a/data/china_amc_list_EM.xlsx
+++ b/data/china_amc_list_EM.xlsx
@@ -838,7 +838,7 @@
         <v>35859</v>
       </c>
       <c r="D15" t="n">
-        <v>6882.83</v>
+        <v>7164.23</v>
       </c>
       <c r="E15" t="n">
         <v>476</v>
@@ -1027,7 +1027,7 @@
         <v>38917</v>
       </c>
       <c r="D22" t="n">
-        <v>5919.46</v>
+        <v>5940.81</v>
       </c>
       <c r="E22" t="n">
         <v>441</v>
@@ -1270,7 +1270,7 @@
         <v>41576</v>
       </c>
       <c r="D31" t="n">
-        <v>3273.11</v>
+        <v>3266.87</v>
       </c>
       <c r="E31" t="n">
         <v>176</v>
@@ -1810,7 +1810,7 @@
         <v>37315</v>
       </c>
       <c r="D51" t="n">
-        <v>1313.66</v>
+        <v>1313.76</v>
       </c>
       <c r="E51" t="n">
         <v>77</v>
@@ -2161,7 +2161,7 @@
         <v>38096</v>
       </c>
       <c r="D64" t="n">
-        <v>874.7</v>
+        <v>876.3099999999999</v>
       </c>
       <c r="E64" t="n">
         <v>153</v>
@@ -2188,7 +2188,7 @@
         <v>36245</v>
       </c>
       <c r="D65" t="n">
-        <v>861.53</v>
+        <v>861.1900000000001</v>
       </c>
       <c r="E65" t="n">
         <v>137</v>
@@ -2431,7 +2431,7 @@
         <v>40715</v>
       </c>
       <c r="D74" t="n">
-        <v>683.97</v>
+        <v>684.17</v>
       </c>
       <c r="E74" t="n">
         <v>103</v>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>06-26</t>
+          <t>06-30</t>
         </is>
       </c>
     </row>
@@ -3153,24 +3153,24 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>平安证券股份有限公司</t>
+          <t>西藏东财基金管理有限公司</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
-        <v>35264</v>
+        <v>43399</v>
       </c>
       <c r="D101" t="n">
-        <v>293.24</v>
+        <v>297.27</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>06-30</t>
         </is>
       </c>
     </row>
@@ -3180,24 +3180,24 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>浙江浙商证券资产管理有限公司</t>
+          <t>平安证券股份有限公司</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
-        <v>41382</v>
+        <v>35264</v>
       </c>
       <c r="D102" t="n">
-        <v>287.45</v>
+        <v>293.24</v>
       </c>
       <c r="E102" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>05-28</t>
+          <t>03-31</t>
         </is>
       </c>
     </row>
@@ -3207,20 +3207,20 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>山证(上海)资产管理有限公司</t>
+          <t>浙江浙商证券资产管理有限公司</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
-        <v>44509</v>
+        <v>41382</v>
       </c>
       <c r="D103" t="n">
-        <v>274.77</v>
+        <v>287.45</v>
       </c>
       <c r="E103" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F103" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3234,20 +3234,20 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>西藏东财基金管理有限公司</t>
+          <t>山证(上海)资产管理有限公司</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
-        <v>43399</v>
+        <v>44509</v>
       </c>
       <c r="D104" t="n">
-        <v>264.67</v>
+        <v>274.77</v>
       </c>
       <c r="E104" t="n">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="F104" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -4206,24 +4206,24 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>新疆前海联合基金管理有限公司</t>
+          <t>天治基金管理有限公司</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
-        <v>42223</v>
+        <v>37768</v>
       </c>
       <c r="D140" t="n">
-        <v>102.38</v>
+        <v>96.41</v>
       </c>
       <c r="E140" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F140" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>06-30</t>
         </is>
       </c>
     </row>
@@ -4233,24 +4233,24 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>天治基金管理有限公司</t>
+          <t>国联证券资产管理有限公司</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
-        <v>37768</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="n">
-        <v>96.41</v>
+        <v>95.67</v>
       </c>
       <c r="E141" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F141" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>06-30</t>
+          <t>03-31</t>
         </is>
       </c>
     </row>
@@ -4260,24 +4260,24 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>国联证券资产管理有限公司</t>
+          <t>新疆前海联合基金管理有限公司</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
-        <v>45189</v>
+        <v>42223</v>
       </c>
       <c r="D142" t="n">
-        <v>95.67</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="E142" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>06-30</t>
         </is>
       </c>
     </row>
@@ -5770,11 +5770,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>山西证券股份有限公司</t>
+          <t>第一创业证券股份有限公司</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
-        <v>32352</v>
+        <v>35807</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="n">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>12-31</t>
+          <t>03-31</t>
         </is>
       </c>
     </row>
@@ -5795,11 +5795,11 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>第一创业证券股份有限公司</t>
+          <t>山西证券股份有限公司</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
-        <v>35807</v>
+        <v>32352</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="n">
@@ -5810,7 +5810,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>12-31</t>
         </is>
       </c>
     </row>
@@ -5820,11 +5820,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>华创证券有限责任公司</t>
+          <t>东吴证券股份有限公司</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
-        <v>37278</v>
+        <v>34069</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="n">
@@ -5845,11 +5845,11 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>东吴证券股份有限公司</t>
+          <t>华创证券有限责任公司</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
-        <v>34069</v>
+        <v>37278</v>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="n">
@@ -5870,11 +5870,11 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>长城证券股份有限公司</t>
+          <t>国信证券股份有限公司</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
-        <v>35187</v>
+        <v>34515</v>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="n">
@@ -5895,11 +5895,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>国信证券股份有限公司</t>
+          <t>方正证券股份有限公司</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
-        <v>34515</v>
+        <v>34633</v>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="n">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>12-31</t>
+          <t>03-31</t>
         </is>
       </c>
     </row>
@@ -5920,11 +5920,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>方正证券股份有限公司</t>
+          <t>长城证券股份有限公司</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
-        <v>34633</v>
+        <v>35187</v>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="n">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>12-31</t>
         </is>
       </c>
     </row>
